--- a/Research/Seturi de date/Software requirements.xlsx
+++ b/Research/Seturi de date/Software requirements.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\Desktop\Good datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62F76AE-B06B-4CE6-8401-C3F518245153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2049D40-D11A-41C6-A3F6-148D6DE20851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35BFF3D2-9122-490C-A81A-F25AD177ACEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Software requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Grafic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -2066,6 +2066,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ro-RO"/>
+              <a:t>Distribuția claselor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3311,8 +3337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC38A795-334C-4C41-8281-8BB29D283D53}">
   <dimension ref="A1:F626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K635" sqref="K635"/>
+    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
+      <selection activeCell="B544" sqref="B544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8389,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B90E6DF-6D40-4990-9124-6512789111C6}">
-  <dimension ref="B3:C15"/>
+  <dimension ref="B3:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8493,12 +8519,6 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <f>SUM(C3:C14)</f>
-        <v>636</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
